--- a/プロジェクト型演習_成果物(削除画面).xlsx
+++ b/プロジェクト型演習_成果物(削除画面).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user43\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B224830-63F3-4D4E-8D1E-4EC5A2AA1B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8814922-7760-4534-9286-287F126DBE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3585" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計書" sheetId="1" r:id="rId1"/>
@@ -413,10 +413,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>task-list.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>task-delete.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -687,6 +683,10 @@
   </si>
   <si>
     <t>task-delete-success</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/TaskListServlet</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1769,7 +1769,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1821,8 +1821,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1830,117 +1899,255 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1950,85 +2157,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2037,185 +2193,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3806,736 +3791,736 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE3C090-186F-4CA2-AD66-6967D9C59DC5}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17" t="s">
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17" t="s">
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17" t="s">
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="20" t="s">
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="91"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="92"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="98"/>
+    </row>
+    <row r="9" spans="1:19" ht="18.75" customHeight="1">
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="98"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="98"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="98"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="95"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="C15" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="24"/>
-    </row>
-    <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="24"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="24"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="24"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="C15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17" t="s">
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17" t="s">
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+    </row>
+    <row r="17" spans="3:24">
+      <c r="C17" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-    </row>
-    <row r="17" spans="3:24">
-      <c r="C17" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="22"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="92"/>
     </row>
     <row r="18" spans="3:24">
-      <c r="C18" s="23"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="27"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="95"/>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="17" t="s">
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17" t="s">
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17" t="s">
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
     </row>
     <row r="20" spans="3:24">
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
     </row>
     <row r="21" spans="3:24" ht="19.5" thickBot="1">
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="99" t="s">
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="100"/>
-      <c r="H22" s="99" t="s">
+      <c r="G22" s="67"/>
+      <c r="H22" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="100"/>
-      <c r="J22" s="101" t="s">
+      <c r="I22" s="67"/>
+      <c r="J22" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="102" t="s">
+      <c r="K22" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="103" t="s">
+      <c r="L22" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="84"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="41" t="s">
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="41" t="s">
+      <c r="G23" s="45"/>
+      <c r="H23" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="105"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="59"/>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="84"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="106"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="60"/>
     </row>
     <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="84"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="106"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="60"/>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="107" t="s">
+      <c r="C26" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="36" t="s">
+      <c r="D26" s="73"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="108"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="74"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="110"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="75"/>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="111"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="112"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
     </row>
     <row r="29" spans="3:24">
-      <c r="C29" s="113"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="115"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="53"/>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="113"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="115"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="53"/>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="113"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="115"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="53"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
     </row>
     <row r="32" spans="3:24">
-      <c r="C32" s="113"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="115"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="53"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="3:24">
-      <c r="C33" s="113"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="115"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="53"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="113"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="115"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="90"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="53"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="113"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="115"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
     </row>
     <row r="36" spans="3:24">
-      <c r="C36" s="113"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="115"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="92"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="53"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="3:24">
-      <c r="C37" s="113"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="114"/>
-      <c r="L37" s="115"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="92"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="53"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="3:24">
-      <c r="C38" s="113"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="115"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="3:24">
-      <c r="C39" s="113"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="114"/>
-      <c r="L39" s="115"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="53"/>
     </row>
     <row r="40" spans="3:24">
-      <c r="C40" s="113"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="115"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="53"/>
     </row>
     <row r="41" spans="3:24">
-      <c r="C41" s="113"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="115"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="53"/>
     </row>
     <row r="42" spans="3:24">
-      <c r="C42" s="113"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="115"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="53"/>
     </row>
     <row r="43" spans="3:24">
-      <c r="C43" s="116"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="117"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="56"/>
     </row>
     <row r="44" spans="3:24">
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="110"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="75"/>
     </row>
     <row r="45" spans="3:24">
-      <c r="C45" s="109" t="s">
+      <c r="C45" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="35"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="70"/>
       <c r="K45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L45" s="118" t="s">
+      <c r="L45" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="46" spans="3:24">
-      <c r="C46" s="109" t="s">
+      <c r="C46" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="35"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
       <c r="F46" s="4" t="s">
         <v>27</v>
       </c>
@@ -4548,18 +4533,18 @@
       <c r="I46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="39" t="s">
+      <c r="J46" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="K46" s="33"/>
-      <c r="L46" s="110"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="75"/>
     </row>
     <row r="47" spans="3:24">
-      <c r="C47" s="119" t="s">
+      <c r="C47" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="35"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="70"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
         <v>60</v>
@@ -4568,50 +4553,50 @@
         <v>61</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J47" s="32"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="110"/>
+        <v>72</v>
+      </c>
+      <c r="J47" s="76"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="75"/>
     </row>
     <row r="48" spans="3:24">
-      <c r="C48" s="119"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="35"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="8"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="120"/>
+      <c r="L48" s="24"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="109" t="s">
+      <c r="C49" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="32" t="s">
+      <c r="D49" s="69"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="35"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="70"/>
       <c r="K49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L49" s="118" t="s">
+      <c r="L49" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="109" t="s">
+      <c r="C50" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="35"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="70"/>
       <c r="F50" s="4" t="s">
         <v>27</v>
       </c>
@@ -4624,67 +4609,106 @@
       <c r="I50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J50" s="39" t="s">
+      <c r="J50" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="K50" s="33"/>
-      <c r="L50" s="110"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="75"/>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="121" t="s">
+      <c r="C51" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="93"/>
-      <c r="E51" s="42"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="45"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="94" t="s">
+      <c r="H51" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="I51" s="94" t="s">
+      <c r="I51" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J51" s="95"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="122"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="26"/>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="128"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="129"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="85"/>
     </row>
     <row r="53" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C53" s="123"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="125"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="127"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
       <c r="K53" s="11"/>
       <c r="L53" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="F23:G25"/>
     <mergeCell ref="H23:I25"/>
     <mergeCell ref="C28:L43"/>
@@ -4699,54 +4723,15 @@
     <mergeCell ref="C22:E25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="F6:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="C6:E14"/>
-    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P36:R37"/>
+    <mergeCell ref="N36:O37"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4769,19 +4754,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="79"/>
+      <c r="F1" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="79"/>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4793,189 +4778,200 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="41" t="s">
+      <c r="A2" s="122"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="110"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="122"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="111"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A4" s="123"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="112"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="49"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="50"/>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="75"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="62" t="s">
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="130"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="131"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="131"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="131"/>
+    </row>
+    <row r="9" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A9" s="126" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="114"/>
+      <c r="D9" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
-    </row>
-    <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="63" t="s">
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+    </row>
+    <row r="10" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A10" s="127"/>
+      <c r="B10" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="114"/>
+      <c r="D10" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+    </row>
+    <row r="11" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A11" s="128"/>
+      <c r="B11" s="113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="114"/>
+      <c r="D11" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
-    </row>
-    <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
-    </row>
-    <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="63" t="s">
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="116"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D1:E1"/>
@@ -4992,17 +4988,6 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5011,28 +4996,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DE094B-4402-4F9F-9A1C-347161DFFA90}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="79"/>
+      <c r="F1" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="79"/>
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5044,48 +5029,48 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="84"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="88" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="49"/>
+      <c r="J2" s="110"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="84"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="50"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="111"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="50"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="111"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -5096,669 +5081,489 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141" t="s">
+      <c r="B7" s="142"/>
+      <c r="C7" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141" t="s">
+      <c r="D7" s="142"/>
+      <c r="E7" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="141"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="142"/>
-      <c r="C8" s="142" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="142"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="141"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="142"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
+      <c r="A9" s="141"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="16"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="16"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143" t="s">
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144" t="s">
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144" t="s">
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144" t="s">
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="16"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="16"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="145"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="147" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="148"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="16"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="16"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="16"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="16"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="16"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="16"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="16"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="16"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="16"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="16"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="16"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="16"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="16"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="16"/>
-      <c r="B33" s="133"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="134"/>
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="136"/>
+      <c r="A34" s="33"/>
+      <c r="J34" s="34"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="134"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="136"/>
+      <c r="A35" s="33"/>
+      <c r="J35" s="34"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="134"/>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="136"/>
+      <c r="A36" s="33"/>
+      <c r="J36" s="34"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="134"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="135"/>
-      <c r="J37" s="136"/>
+      <c r="A37" s="33"/>
+      <c r="J37" s="34"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="134"/>
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="135"/>
-      <c r="H38" s="135"/>
-      <c r="I38" s="135"/>
-      <c r="J38" s="136"/>
+      <c r="A38" s="33"/>
+      <c r="J38" s="34"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="134"/>
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="135"/>
-      <c r="G39" s="135"/>
-      <c r="H39" s="135"/>
-      <c r="I39" s="135"/>
-      <c r="J39" s="136"/>
+      <c r="A39" s="33"/>
+      <c r="J39" s="34"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="134"/>
-      <c r="B40" s="135"/>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="136"/>
+      <c r="A40" s="33"/>
+      <c r="J40" s="34"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="134"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="136"/>
+      <c r="A41" s="33"/>
+      <c r="J41" s="34"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="134"/>
-      <c r="B42" s="135"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="135"/>
-      <c r="J42" s="136"/>
+      <c r="A42" s="33"/>
+      <c r="J42" s="34"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="134"/>
-      <c r="B43" s="135"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="135"/>
-      <c r="I43" s="135"/>
-      <c r="J43" s="136"/>
+      <c r="A43" s="33"/>
+      <c r="J43" s="34"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="134"/>
-      <c r="B44" s="135"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="135"/>
-      <c r="G44" s="135"/>
-      <c r="H44" s="135"/>
-      <c r="I44" s="135"/>
-      <c r="J44" s="136"/>
+      <c r="A44" s="33"/>
+      <c r="J44" s="34"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="134"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="135"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="135"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="135"/>
-      <c r="I45" s="135"/>
-      <c r="J45" s="136"/>
+      <c r="A45" s="33"/>
+      <c r="J45" s="34"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="134"/>
-      <c r="B46" s="135"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="135"/>
-      <c r="J46" s="136"/>
+      <c r="A46" s="33"/>
+      <c r="J46" s="34"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="134"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="135"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="135"/>
-      <c r="F47" s="135"/>
-      <c r="G47" s="135"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="135"/>
-      <c r="J47" s="136"/>
+      <c r="A47" s="33"/>
+      <c r="J47" s="34"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="134"/>
-      <c r="B48" s="135"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="135"/>
-      <c r="F48" s="135"/>
-      <c r="G48" s="135"/>
-      <c r="H48" s="135"/>
-      <c r="I48" s="135"/>
-      <c r="J48" s="136"/>
+      <c r="A48" s="33"/>
+      <c r="J48" s="34"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="134"/>
-      <c r="B49" s="135"/>
-      <c r="C49" s="135"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="135"/>
-      <c r="F49" s="135"/>
-      <c r="G49" s="135"/>
-      <c r="H49" s="135"/>
-      <c r="I49" s="135"/>
-      <c r="J49" s="136"/>
+      <c r="A49" s="33"/>
+      <c r="J49" s="34"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="134"/>
-      <c r="B50" s="135"/>
-      <c r="C50" s="135"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="135"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="135"/>
-      <c r="I50" s="135"/>
-      <c r="J50" s="136"/>
+      <c r="A50" s="33"/>
+      <c r="J50" s="34"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="134"/>
-      <c r="B51" s="135"/>
-      <c r="C51" s="135"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
-      <c r="J51" s="136"/>
+      <c r="A51" s="33"/>
+      <c r="J51" s="34"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="134"/>
-      <c r="B52" s="135"/>
-      <c r="C52" s="135"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="135"/>
-      <c r="F52" s="135"/>
-      <c r="G52" s="135"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="135"/>
-      <c r="J52" s="136"/>
+      <c r="A52" s="33"/>
+      <c r="J52" s="34"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="134"/>
-      <c r="B53" s="135"/>
-      <c r="C53" s="135"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="135"/>
-      <c r="J53" s="136"/>
+      <c r="A53" s="33"/>
+      <c r="J53" s="34"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="134"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="135"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="135"/>
-      <c r="F54" s="135"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="135"/>
-      <c r="I54" s="135"/>
-      <c r="J54" s="136"/>
+      <c r="A54" s="33"/>
+      <c r="J54" s="34"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="134"/>
-      <c r="B55" s="135"/>
-      <c r="C55" s="135"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="135"/>
-      <c r="G55" s="135"/>
-      <c r="H55" s="135"/>
-      <c r="I55" s="135"/>
-      <c r="J55" s="136"/>
+      <c r="A55" s="33"/>
+      <c r="J55" s="34"/>
     </row>
     <row r="56" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A56" s="137"/>
-      <c r="B56" s="138"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="138"/>
-      <c r="F56" s="138"/>
-      <c r="G56" s="138"/>
-      <c r="H56" s="138"/>
-      <c r="I56" s="138"/>
-      <c r="J56" s="139"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="135"/>
-      <c r="B57" s="135"/>
-      <c r="C57" s="135"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="135"/>
-      <c r="F57" s="135"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="135"/>
-      <c r="I57" s="135"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
@@ -5767,22 +5572,15 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A12:I12"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/プロジェクト型演習_成果物(削除画面).xlsx
+++ b/プロジェクト型演習_成果物(削除画面).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8814922-7760-4534-9286-287F126DBE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4D923F-DA84-414C-88FD-7B4DD508D47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>プロジェクト演習
 タスク編集機能</t>
@@ -666,7 +666,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスク削除成功画面へとそれぞれ遷移する</t>
+    <t>task-delete-success</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/TaskListServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク削除成功画面へと遷移し、DBから情報の削除を行う</t>
     <rPh sb="3" eb="5">
       <t>サクジョ</t>
     </rPh>
@@ -676,17 +684,22 @@
     <rPh sb="7" eb="9">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="15" eb="17">
+    <rPh sb="11" eb="13">
       <t>センイ</t>
     </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>task-delete-success</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/TaskListServlet</t>
+    <t>get</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1896,94 +1909,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1995,80 +2005,119 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2109,24 +2158,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2148,58 +2182,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2735,7 +2748,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
-            <a:t>+setMemo(memo):void</a:t>
+            <a:t>+setMemo(memo : String):void</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3792,13 +3805,13 @@
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45:J45"/>
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="41"/>
@@ -3814,331 +3827,331 @@
       <c r="E2" s="41"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96" t="s">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="99" t="s">
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="96" t="s">
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="97"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="41"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="90" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="92"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="46"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="97"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="97"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
       <c r="O8" s="41"/>
       <c r="P8" s="41"/>
       <c r="Q8" s="41"/>
       <c r="R8" s="41"/>
-      <c r="S8" s="98"/>
+      <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="97"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="97"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="47"/>
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
       <c r="O9" s="41"/>
       <c r="P9" s="41"/>
       <c r="Q9" s="41"/>
       <c r="R9" s="41"/>
-      <c r="S9" s="98"/>
+      <c r="S9" s="48"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="97"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="97"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="47"/>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
       <c r="O10" s="41"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
       <c r="R10" s="41"/>
-      <c r="S10" s="98"/>
+      <c r="S10" s="48"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="97"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="41"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="97"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="47"/>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
       <c r="P11" s="41"/>
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
-      <c r="S11" s="98"/>
+      <c r="S11" s="48"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="95"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="51"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96" t="s">
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96" t="s">
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="99" t="s">
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="99" t="s">
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="91"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="90" t="s">
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="92"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="46"/>
     </row>
     <row r="18" spans="3:24">
-      <c r="C18" s="97"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="41"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="95"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="51"/>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96" t="s">
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96" t="s">
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
     </row>
     <row r="20" spans="3:24">
       <c r="I20" s="41"/>
@@ -4151,19 +4164,19 @@
       <c r="K21" s="41"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="66" t="s">
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="66" t="s">
+      <c r="G22" s="98"/>
+      <c r="H22" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="67"/>
+      <c r="I22" s="98"/>
       <c r="J22" s="21" t="s">
         <v>18</v>
       </c>
@@ -4175,122 +4188,122 @@
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="44" t="s">
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="44" t="s">
+      <c r="G23" s="68"/>
+      <c r="H23" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="59"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="90"/>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="60"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="91"/>
     </row>
     <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="60"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="91"/>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="72" t="s">
+      <c r="D26" s="72"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="74"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="73"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="75"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="61"/>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="50"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="81"/>
     </row>
     <row r="29" spans="3:24">
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="53"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="84"/>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="51"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="53"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="84"/>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="53"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="84"/>
       <c r="N31" s="41"/>
       <c r="O31" s="41"/>
       <c r="P31" s="41"/>
@@ -4303,16 +4316,16 @@
       <c r="X31" s="41"/>
     </row>
     <row r="32" spans="3:24">
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="53"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="84"/>
       <c r="N32" s="41"/>
       <c r="O32" s="41"/>
       <c r="P32" s="41"/>
@@ -4320,33 +4333,33 @@
       <c r="R32" s="41"/>
     </row>
     <row r="33" spans="3:24">
-      <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="53"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="84"/>
       <c r="N33" s="41"/>
       <c r="O33" s="41"/>
-      <c r="P33" s="43"/>
+      <c r="P33" s="99"/>
       <c r="Q33" s="41"/>
       <c r="R33" s="41"/>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="51"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="53"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="84"/>
       <c r="N34" s="41"/>
       <c r="O34" s="41"/>
       <c r="P34" s="41"/>
@@ -4354,16 +4367,16 @@
       <c r="R34" s="41"/>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="84"/>
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
       <c r="P35" s="41"/>
@@ -4376,151 +4389,151 @@
       <c r="X35" s="41"/>
     </row>
     <row r="36" spans="3:24">
-      <c r="C36" s="51"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="53"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="84"/>
       <c r="N36" s="41"/>
       <c r="O36" s="41"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
     </row>
     <row r="37" spans="3:24">
-      <c r="C37" s="51"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="53"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="84"/>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
     </row>
     <row r="38" spans="3:24">
-      <c r="C38" s="51"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="53"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="84"/>
     </row>
     <row r="39" spans="3:24">
-      <c r="C39" s="51"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="53"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="84"/>
     </row>
     <row r="40" spans="3:24">
-      <c r="C40" s="51"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="53"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="84"/>
     </row>
     <row r="41" spans="3:24">
-      <c r="C41" s="51"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="53"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="84"/>
     </row>
     <row r="42" spans="3:24">
-      <c r="C42" s="51"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="53"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="84"/>
     </row>
     <row r="43" spans="3:24">
-      <c r="C43" s="54"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="56"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="87"/>
     </row>
     <row r="44" spans="3:24">
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="75"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="61"/>
     </row>
     <row r="45" spans="3:24">
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="69"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="70"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="64"/>
       <c r="K45" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="3:24">
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="64"/>
       <c r="F46" s="4" t="s">
         <v>27</v>
       </c>
@@ -4533,18 +4546,18 @@
       <c r="I46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="77" t="s">
+      <c r="J46" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="K46" s="69"/>
-      <c r="L46" s="75"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="61"/>
     </row>
     <row r="47" spans="3:24">
-      <c r="C47" s="71" t="s">
+      <c r="C47" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="70"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="64"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
         <v>60</v>
@@ -4555,14 +4568,14 @@
       <c r="I47" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J47" s="76"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="75"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="61"/>
     </row>
     <row r="48" spans="3:24">
-      <c r="C48" s="71"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="70"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="64"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
@@ -4572,18 +4585,18 @@
       <c r="L48" s="24"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="76" t="s">
+      <c r="D49" s="60"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="70"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="64"/>
       <c r="K49" s="4" t="s">
         <v>25</v>
       </c>
@@ -4592,11 +4605,11 @@
       </c>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="68" t="s">
+      <c r="C50" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="69"/>
-      <c r="E50" s="70"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="64"/>
       <c r="F50" s="4" t="s">
         <v>27</v>
       </c>
@@ -4609,18 +4622,18 @@
       <c r="I50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J50" s="77" t="s">
+      <c r="J50" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="K50" s="69"/>
-      <c r="L50" s="75"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="61"/>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="87"/>
-      <c r="E51" s="45"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="68"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
         <v>60</v>
@@ -4636,21 +4649,21 @@
       <c r="L51" s="26"/>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="88"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="89"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="55"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="85"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="62"/>
     </row>
     <row r="53" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C53" s="80"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="82"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="58"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
@@ -4661,54 +4674,15 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="C6:E14"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="F6:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P36:R37"/>
+    <mergeCell ref="N36:O37"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
     <mergeCell ref="F23:G25"/>
     <mergeCell ref="H23:I25"/>
     <mergeCell ref="C28:L43"/>
@@ -4723,15 +4697,54 @@
     <mergeCell ref="C22:E25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="C15:E16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4743,8 +4756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4538CB-88B1-4F00-BE8F-59AF7E88C672}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:J13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4754,19 +4767,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="106" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="106" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="79"/>
+      <c r="G1" s="75"/>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4778,200 +4791,189 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="122"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="44" t="s">
+      <c r="A2" s="129"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="110"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="122"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="111"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="123"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="123"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="112"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="124"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="129" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="130"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="107"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="76" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="131"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="108"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="76" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="131"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="76" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="131"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="108"/>
     </row>
     <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="132" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="111"/>
     </row>
     <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="127"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="102"/>
+      <c r="B10" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="76" t="s">
+      <c r="C10" s="105"/>
+      <c r="D10" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
     </row>
     <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="128"/>
-      <c r="B11" s="113" t="s">
+      <c r="A11" s="103"/>
+      <c r="B11" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="132" t="s">
+      <c r="C11" s="105"/>
+      <c r="D11" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="111"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="105"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D1:E1"/>
@@ -4988,6 +4990,17 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4998,26 +5011,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DE094B-4402-4F9F-9A1C-347161DFFA90}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="139" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="106" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="79"/>
+      <c r="G1" s="75"/>
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5029,44 +5042,44 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="140" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="110"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="111"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="123"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="111"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="123"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="30"/>
@@ -5081,62 +5094,62 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142" t="s">
+      <c r="B7" s="136"/>
+      <c r="C7" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142" t="s">
+      <c r="D7" s="136"/>
+      <c r="E7" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="142"/>
+      <c r="F7" s="136"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="141" t="s">
+      <c r="A8" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141" t="s">
+      <c r="B8" s="135"/>
+      <c r="C8" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="141"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="135"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="141"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -5167,33 +5180,33 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="133" t="s">
+      <c r="A13" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133" t="s">
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
@@ -5272,12 +5285,12 @@
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="143" t="s">
+      <c r="D19" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="40"/>
@@ -5552,26 +5565,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
@@ -5581,6 +5574,26 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/プロジェクト型演習_成果物(削除画面).xlsx
+++ b/プロジェクト型演習_成果物(削除画面).xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4D923F-DA84-414C-88FD-7B4DD508D47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BD1576-AEEF-48C8-BA2A-701D275D12B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
   <sheets>
-    <sheet name="画面設計書" sheetId="1" r:id="rId1"/>
+    <sheet name="表紙" sheetId="4" r:id="rId1"/>
     <sheet name="ユースケース記述" sheetId="2" r:id="rId2"/>
-    <sheet name="詳細クラス図" sheetId="3" r:id="rId3"/>
+    <sheet name="画面設計書" sheetId="1" r:id="rId3"/>
+    <sheet name="詳細クラス図" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t>プロジェクト演習
 タスク編集機能</t>
@@ -320,40 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインが済んでいる事　ログイン者がタスク一覧画面からタスク詳細画面へ遷移する際にそのタスクの担当者である事</t>
-    <rPh sb="5" eb="6">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タスク詳細画面</t>
     <rPh sb="3" eb="5">
       <t>ショウサイ</t>
@@ -644,28 +611,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン者とタスク担当者が違う場合、削除ボタンを押下できないようにする</t>
-    <rPh sb="4" eb="5">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>task-delete-success</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -700,6 +645,64 @@
   </si>
   <si>
     <t>get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト型演習　成果ドキュメント</t>
+  </si>
+  <si>
+    <t>タスク管理システム</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>坂上</t>
+    <rPh sb="0" eb="2">
+      <t>サカガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインが済んでいる事　ログイン者がタスク詳細画面からタスク削除画面へ遷移する際に担当者と同一であること</t>
+    <rPh sb="5" eb="6">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ドウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂上</t>
+    <rPh sb="0" eb="2">
+      <t>サカガミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -707,7 +710,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +744,36 @@
       <name val="MS PGothic"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -787,7 +820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="85">
+  <borders count="86">
     <border>
       <left/>
       <right/>
@@ -1775,6 +1808,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1782,7 +1824,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1906,6 +1948,162 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1960,12 +2158,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1975,9 +2167,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1987,9 +2176,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1999,27 +2185,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2047,12 +2218,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2071,9 +2236,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2082,105 +2244,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2327,26 +2390,31 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="4952999"/>
+          <a:off x="142875" y="4895849"/>
           <a:ext cx="2686050" cy="8296275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2355,13 +2423,37 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>entity</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2399,19 +2491,24 @@
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2420,10 +2517,34 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>dao</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2461,19 +2582,27 @@
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2482,317 +2611,893 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>TaskCategoryUserStatusBean</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>----------------------------------------</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>-</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>  taskId: int</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>-  taskName: String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>-  categoryId:</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t> int</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>- categoryName : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>- limitDate : date</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>- userId : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>- userName : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>- statusCode : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>- statusName : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>- memo : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>- createDatetime : Timestamp</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>- updateDatetime : Timestamp</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>----------------------------------------</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+ TaskCategoryUserStatusBean()</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+ getTaskId() : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+ setTaskId(taskid : int): void</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getTaskName(): String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setTaskName(taskname : String): void </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getCategoryId() : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setCategoryId(categoryid : int) void</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getCategoryName() : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setCategoryName(categoryName : String)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t> void</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getLimitDate():Date</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setLimitDate(limitdate:date):void</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getUserId():String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>setUserId(useid:String) : void</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getUserName():String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setUserName(userName:String) : void</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getStatusCode():String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setStatusCode(statuscode:String) void</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getStatusName():String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setStatusName(statusName:String) :void</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getMemo():String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setMemo(memo : String):void</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getCreateDateTime():Timestamp</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setCreateDateTime</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>(createDatetime:Timestamp) : void</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getUpdateDateTime() : Timestamp</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setUpdateDateTime</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>(updateDateTime : TimeStamp) : void</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2830,6 +3535,12 @@
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2941,6 +3652,12 @@
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3120,10 +3837,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3176,10 +3894,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3234,22 +3953,20 @@
             <a:gd name="adj1" fmla="val 83711"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
+        <a:ln w="28575">
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3290,10 +4007,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3346,10 +4064,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3402,10 +4121,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3458,10 +4178,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3801,382 +4522,777 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE3C090-186F-4CA2-AD66-6967D9C59DC5}">
-  <dimension ref="A1:X53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75DC96A-91C0-4F6F-8BFA-3E23AD0F882F}">
+  <dimension ref="C1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="C5" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="C6" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="44" t="s">
-        <v>68</v>
-      </c>
+    <row r="1" spans="3:16" ht="19.5" thickBot="1"/>
+    <row r="2" spans="3:16" ht="33" thickTop="1">
+      <c r="C2" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="3:16" ht="32.25">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="3:16" ht="32.25">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="41"/>
+    </row>
+    <row r="5" spans="3:16" ht="32.25">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="41"/>
+    </row>
+    <row r="6" spans="3:16" ht="33" thickBot="1">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="41"/>
+    </row>
+    <row r="7" spans="3:16" ht="33" thickTop="1">
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="52" t="s">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="41"/>
+    </row>
+    <row r="8" spans="3:16" ht="24">
+      <c r="E8" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:O6"/>
+    <mergeCell ref="E8:M8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4538CB-88B1-4F00-BE8F-59AF7E88C672}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="4" max="4" width="40.625" customWidth="1"/>
+    <col min="6" max="6" width="40.625" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="70"/>
+      <c r="F1" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="70"/>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="77">
+        <v>45632</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="81"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="82"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="83"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="59"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="59"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="59"/>
+    </row>
+    <row r="9" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A9" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+    </row>
+    <row r="10" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A10" s="51"/>
+      <c r="B10" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+    </row>
+    <row r="11" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A11" s="52"/>
+      <c r="B11" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A13" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE3C090-186F-4CA2-AD66-6967D9C59DC5}">
+  <dimension ref="A1:X53"/>
+  <sheetViews>
+    <sheetView topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="C5" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="C6" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="97"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="46"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="98"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="48"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="100"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="48"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="100"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="48"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="100"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="48"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="100"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="51"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="103"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42" t="s">
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42" t="s">
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42" t="s">
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+    </row>
+    <row r="17" spans="3:24">
+      <c r="C17" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="97"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="97"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-    </row>
-    <row r="17" spans="3:24">
-      <c r="C17" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="45"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="46"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="98"/>
     </row>
     <row r="18" spans="3:24">
-      <c r="C18" s="47"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="51"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="103"/>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="42" t="s">
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42" t="s">
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42" t="s">
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
     </row>
     <row r="20" spans="3:24">
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
     </row>
     <row r="21" spans="3:24" ht="19.5" thickBot="1">
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="97" t="s">
+      <c r="D22" s="134"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="97" t="s">
+      <c r="G22" s="138"/>
+      <c r="H22" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="98"/>
+      <c r="I22" s="138"/>
       <c r="J22" s="21" t="s">
         <v>18</v>
       </c>
@@ -4188,352 +5304,356 @@
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="95"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="76" t="s">
+      <c r="C23" s="136"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="76" t="s">
+      <c r="G23" s="72"/>
+      <c r="H23" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="68"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="90"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="77">
+        <v>45632</v>
+      </c>
+      <c r="K23" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="131"/>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="95"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="91"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="132"/>
     </row>
     <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="95"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="91"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="132"/>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="71" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="73"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="120"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="61"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="111"/>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="81"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="124"/>
     </row>
     <row r="29" spans="3:24">
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="84"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="127"/>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="84"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="127"/>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="84"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="127"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="93"/>
+      <c r="T31" s="93"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="93"/>
     </row>
     <row r="32" spans="3:24">
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="84"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="127"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="93"/>
     </row>
     <row r="33" spans="3:24">
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="84"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="127"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="139"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="84"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="127"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="93"/>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="84"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="127"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
     </row>
     <row r="36" spans="3:24">
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="84"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="127"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
     </row>
     <row r="37" spans="3:24">
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="84"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="127"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
     </row>
     <row r="38" spans="3:24">
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="84"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="126"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="126"/>
+      <c r="K38" s="126"/>
+      <c r="L38" s="127"/>
     </row>
     <row r="39" spans="3:24">
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="84"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="126"/>
+      <c r="K39" s="126"/>
+      <c r="L39" s="127"/>
     </row>
     <row r="40" spans="3:24">
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="84"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="126"/>
+      <c r="K40" s="126"/>
+      <c r="L40" s="127"/>
     </row>
     <row r="41" spans="3:24">
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="84"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="126"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="127"/>
     </row>
     <row r="42" spans="3:24">
-      <c r="C42" s="82"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="84"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="127"/>
     </row>
     <row r="43" spans="3:24">
-      <c r="C43" s="85"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="87"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="130"/>
     </row>
     <row r="44" spans="3:24">
-      <c r="C44" s="65" t="s">
+      <c r="C44" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="61"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="111"/>
     </row>
     <row r="45" spans="3:24">
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="64"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="49"/>
       <c r="K45" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="3:24">
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="64"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="4" t="s">
         <v>27</v>
       </c>
@@ -4546,36 +5666,36 @@
       <c r="I46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="69" t="s">
+      <c r="J46" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="K46" s="60"/>
-      <c r="L46" s="61"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="111"/>
     </row>
     <row r="47" spans="3:24">
-      <c r="C47" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="64"/>
+      <c r="C47" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="I47" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J47" s="59"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="61"/>
+        <v>71</v>
+      </c>
+      <c r="J47" s="58"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="111"/>
     </row>
     <row r="48" spans="3:24">
-      <c r="C48" s="63"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="64"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="49"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
@@ -4585,18 +5705,18 @@
       <c r="L48" s="24"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="64"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="49"/>
       <c r="K49" s="4" t="s">
         <v>25</v>
       </c>
@@ -4605,11 +5725,11 @@
       </c>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="65" t="s">
+      <c r="C50" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="60"/>
-      <c r="E50" s="64"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
       <c r="F50" s="4" t="s">
         <v>27</v>
       </c>
@@ -4622,48 +5742,48 @@
       <c r="I50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J50" s="69" t="s">
+      <c r="J50" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="K50" s="60"/>
-      <c r="L50" s="61"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="111"/>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="68"/>
+      <c r="C51" s="115" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="116"/>
+      <c r="E51" s="72"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H51" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="J51" s="19"/>
       <c r="K51" s="17"/>
       <c r="L51" s="26"/>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="70"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="55"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="107"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="62"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="112"/>
     </row>
     <row r="53" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C53" s="56"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="58"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="110"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
@@ -4752,334 +5872,84 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4538CB-88B1-4F00-BE8F-59AF7E88C672}">
-  <dimension ref="A1:J13"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DE094B-4402-4F9F-9A1C-347161DFFA90}">
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="4" max="4" width="40.625" customWidth="1"/>
-    <col min="6" max="6" width="40.625" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="126" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="118" t="s">
+      <c r="A1" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="118" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="129"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="122"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="129"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="123"/>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="130"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="124"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="132" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="107"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="100" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="108"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="100" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="108"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="108"/>
-    </row>
-    <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="111"/>
-    </row>
-    <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
-    </row>
-    <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="103"/>
-      <c r="B11" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="109" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="117"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DE094B-4402-4F9F-9A1C-347161DFFA90}">
-  <dimension ref="A1:J56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="141" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="142" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88" t="s">
+      <c r="A2" s="136"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="149" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="77">
+        <v>45632</v>
+      </c>
+      <c r="I2" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="122"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="123"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="123"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="82"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="30"/>
@@ -5094,62 +5964,62 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136" t="s">
+      <c r="B7" s="143"/>
+      <c r="C7" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136" t="s">
+      <c r="D7" s="143"/>
+      <c r="E7" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="136"/>
+      <c r="F7" s="143"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="135" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="135"/>
+      <c r="A8" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="142"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="135"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -5180,81 +6050,81 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="137" t="s">
+      <c r="A12" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="150" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143" t="s">
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="134" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134" t="s">
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134" t="s">
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
@@ -5285,12 +6155,12 @@
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="133" t="s">
+      <c r="D19" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="40"/>

--- a/プロジェクト型演習_成果物(削除画面).xlsx
+++ b/プロジェクト型演習_成果物(削除画面).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BD1576-AEEF-48C8-BA2A-701D275D12B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B35DFFA-1D83-4077-8662-F2DD38097B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -1966,9 +1966,117 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1984,23 +2092,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2008,274 +2104,178 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2300,16 +2300,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>173445</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>163920</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2339,8 +2339,69 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3552825" y="6562725"/>
+          <a:off x="1485900" y="6467475"/>
           <a:ext cx="2792820" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504059</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE78FE41-AF29-3D1B-E800-343BA2617EF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5248275" y="6515101"/>
+          <a:ext cx="2913884" cy="3562349"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4525,7 +4586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75DC96A-91C0-4F6F-8BFA-3E23AD0F882F}">
   <dimension ref="C1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:Q8"/>
     </sheetView>
   </sheetViews>
@@ -4669,19 +4730,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="69" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="69" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="70"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4693,193 +4754,204 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="77">
+      <c r="E2" s="56"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="61">
         <v>45632</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="82"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="83"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="55" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="90"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="58" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="59"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="58" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="59"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="91"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="58" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="59"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="91"/>
     </row>
     <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="60" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="74"/>
     </row>
     <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="58" t="s">
+      <c r="C10" s="69"/>
+      <c r="D10" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="74"/>
     </row>
     <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="60" t="s">
+      <c r="C11" s="69"/>
+      <c r="D11" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="58" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D1:E1"/>
@@ -4896,17 +4968,6 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4917,8 +4978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE3C090-186F-4CA2-AD66-6967D9C59DC5}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:L26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4927,7 +4988,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="93"/>
@@ -4943,331 +5004,331 @@
       <c r="E2" s="93"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94" t="s">
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94" t="s">
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94" t="s">
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94" t="s">
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="96" t="s">
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="97"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="94" t="s">
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="136"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="99"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="137"/>
       <c r="J7" s="93"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="104" t="s">
+      <c r="K7" s="138"/>
+      <c r="L7" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="98"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="132"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="99"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
       <c r="J8" s="93"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="99"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="137"/>
       <c r="M8" s="93"/>
       <c r="N8" s="93"/>
       <c r="O8" s="93"/>
       <c r="P8" s="93"/>
       <c r="Q8" s="93"/>
       <c r="R8" s="93"/>
-      <c r="S8" s="100"/>
+      <c r="S8" s="138"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="99"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="137"/>
       <c r="J9" s="93"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="99"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="137"/>
       <c r="M9" s="93"/>
       <c r="N9" s="93"/>
       <c r="O9" s="93"/>
       <c r="P9" s="93"/>
       <c r="Q9" s="93"/>
       <c r="R9" s="93"/>
-      <c r="S9" s="100"/>
+      <c r="S9" s="138"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="99"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="137"/>
       <c r="J10" s="93"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="99"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="137"/>
       <c r="M10" s="93"/>
       <c r="N10" s="93"/>
       <c r="O10" s="93"/>
       <c r="P10" s="93"/>
       <c r="Q10" s="93"/>
       <c r="R10" s="93"/>
-      <c r="S10" s="100"/>
+      <c r="S10" s="138"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="99"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="137"/>
       <c r="J11" s="93"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="99"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="137"/>
       <c r="M11" s="93"/>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="93"/>
       <c r="R11" s="93"/>
-      <c r="S11" s="100"/>
+      <c r="S11" s="138"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="103"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="135"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="136"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="136"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94" t="s">
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94" t="s">
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94" t="s">
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
+      <c r="S15" s="136"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94" t="s">
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="136"/>
+      <c r="S16" s="136"/>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="96" t="s">
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="96" t="s">
+      <c r="G17" s="131"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="97"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="104" t="s">
+      <c r="J17" s="131"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="98"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="132"/>
     </row>
     <row r="18" spans="3:24">
-      <c r="C18" s="99"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="93"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="103"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="135"/>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="94" t="s">
+      <c r="C19" s="133"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94" t="s">
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94" t="s">
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="136"/>
+      <c r="Q19" s="136"/>
+      <c r="R19" s="136"/>
+      <c r="S19" s="136"/>
     </row>
     <row r="20" spans="3:24">
       <c r="I20" s="93"/>
@@ -5280,19 +5341,19 @@
       <c r="K21" s="93"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="137" t="s">
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="138"/>
-      <c r="H22" s="137" t="s">
+      <c r="G22" s="112"/>
+      <c r="H22" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="138"/>
+      <c r="I22" s="112"/>
       <c r="J22" s="21" t="s">
         <v>18</v>
       </c>
@@ -5304,126 +5365,126 @@
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="136"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="71" t="s">
+      <c r="C23" s="110"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="72"/>
-      <c r="H23" s="71" t="s">
+      <c r="G23" s="56"/>
+      <c r="H23" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="72"/>
-      <c r="J23" s="77">
+      <c r="I23" s="56"/>
+      <c r="J23" s="61">
         <v>45632</v>
       </c>
-      <c r="K23" s="80" t="s">
+      <c r="K23" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="L23" s="131"/>
+      <c r="L23" s="105"/>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="136"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="132"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="106"/>
     </row>
     <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="136"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="132"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="106"/>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="121" t="s">
+      <c r="C26" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="119" t="s">
+      <c r="D26" s="83"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="120"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="116"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="114" t="s">
+      <c r="C27" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="111"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="117"/>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="122"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="124"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="98"/>
     </row>
     <row r="29" spans="3:24">
-      <c r="C29" s="125"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="127"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="101"/>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="125"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="127"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="101"/>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="127"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="101"/>
       <c r="N31" s="93"/>
       <c r="O31" s="93"/>
       <c r="P31" s="93"/>
@@ -5436,16 +5497,16 @@
       <c r="X31" s="93"/>
     </row>
     <row r="32" spans="3:24">
-      <c r="C32" s="125"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="127"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="101"/>
       <c r="N32" s="93"/>
       <c r="O32" s="93"/>
       <c r="P32" s="93"/>
@@ -5453,33 +5514,33 @@
       <c r="R32" s="93"/>
     </row>
     <row r="33" spans="3:24">
-      <c r="C33" s="125"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="127"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="101"/>
       <c r="N33" s="93"/>
       <c r="O33" s="93"/>
-      <c r="P33" s="139"/>
+      <c r="P33" s="95"/>
       <c r="Q33" s="93"/>
       <c r="R33" s="93"/>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="125"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="126"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="127"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="101"/>
       <c r="N34" s="93"/>
       <c r="O34" s="93"/>
       <c r="P34" s="93"/>
@@ -5487,16 +5548,16 @@
       <c r="R34" s="93"/>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="125"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="127"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="101"/>
       <c r="N35" s="93"/>
       <c r="O35" s="93"/>
       <c r="P35" s="93"/>
@@ -5509,138 +5570,138 @@
       <c r="X35" s="93"/>
     </row>
     <row r="36" spans="3:24">
-      <c r="C36" s="125"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="127"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="101"/>
       <c r="N36" s="93"/>
       <c r="O36" s="93"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
     </row>
     <row r="37" spans="3:24">
-      <c r="C37" s="125"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="127"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="101"/>
       <c r="N37" s="93"/>
       <c r="O37" s="93"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
     </row>
     <row r="38" spans="3:24">
-      <c r="C38" s="125"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="126"/>
-      <c r="K38" s="126"/>
-      <c r="L38" s="127"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="101"/>
     </row>
     <row r="39" spans="3:24">
-      <c r="C39" s="125"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="126"/>
-      <c r="K39" s="126"/>
-      <c r="L39" s="127"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="101"/>
     </row>
     <row r="40" spans="3:24">
-      <c r="C40" s="125"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="126"/>
-      <c r="K40" s="126"/>
-      <c r="L40" s="127"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="101"/>
     </row>
     <row r="41" spans="3:24">
-      <c r="C41" s="125"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="127"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="101"/>
     </row>
     <row r="42" spans="3:24">
-      <c r="C42" s="125"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="127"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="101"/>
     </row>
     <row r="43" spans="3:24">
-      <c r="C43" s="128"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="130"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="104"/>
     </row>
     <row r="44" spans="3:24">
-      <c r="C44" s="114" t="s">
+      <c r="C44" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="111"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="117"/>
     </row>
     <row r="45" spans="3:24">
-      <c r="C45" s="114" t="s">
+      <c r="C45" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="58" t="s">
+      <c r="D45" s="84"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="49"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="85"/>
       <c r="K45" s="4" t="s">
         <v>25</v>
       </c>
@@ -5649,11 +5710,11 @@
       </c>
     </row>
     <row r="46" spans="3:24">
-      <c r="C46" s="114" t="s">
+      <c r="C46" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="49"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="85"/>
       <c r="F46" s="4" t="s">
         <v>27</v>
       </c>
@@ -5666,18 +5727,18 @@
       <c r="I46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="117" t="s">
+      <c r="J46" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="K46" s="48"/>
-      <c r="L46" s="111"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="117"/>
     </row>
     <row r="47" spans="3:24">
-      <c r="C47" s="113" t="s">
+      <c r="C47" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="85"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
         <v>59</v>
@@ -5688,14 +5749,14 @@
       <c r="I47" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J47" s="58"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="111"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="117"/>
     </row>
     <row r="48" spans="3:24">
-      <c r="C48" s="113"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="49"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="85"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
@@ -5705,18 +5766,18 @@
       <c r="L48" s="24"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="114" t="s">
+      <c r="C49" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="58" t="s">
+      <c r="D49" s="84"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="49"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="85"/>
       <c r="K49" s="4" t="s">
         <v>25</v>
       </c>
@@ -5725,11 +5786,11 @@
       </c>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="114" t="s">
+      <c r="C50" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="49"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="85"/>
       <c r="F50" s="4" t="s">
         <v>27</v>
       </c>
@@ -5742,18 +5803,18 @@
       <c r="I50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J50" s="117" t="s">
+      <c r="J50" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="K50" s="48"/>
-      <c r="L50" s="111"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="117"/>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="115" t="s">
+      <c r="C51" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="116"/>
-      <c r="E51" s="72"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="56"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
         <v>59</v>
@@ -5769,21 +5830,21 @@
       <c r="L51" s="26"/>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="118"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="107"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="129"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
-      <c r="J52" s="105"/>
-      <c r="K52" s="106"/>
-      <c r="L52" s="112"/>
+      <c r="J52" s="123"/>
+      <c r="K52" s="124"/>
+      <c r="L52" s="125"/>
     </row>
     <row r="53" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C53" s="108"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="110"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="122"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
@@ -5794,15 +5855,54 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="F23:G25"/>
     <mergeCell ref="H23:I25"/>
     <mergeCell ref="C28:L43"/>
@@ -5817,54 +5917,15 @@
     <mergeCell ref="C22:E25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="F6:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="C6:E14"/>
-    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P36:R37"/>
+    <mergeCell ref="N36:O37"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5876,7 +5937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DE094B-4402-4F9F-9A1C-347161DFFA90}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -5886,19 +5947,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="148" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="69" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="70"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5910,46 +5971,46 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="136"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="149" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="77">
+      <c r="E2" s="56"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="61">
         <v>45632</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="136"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="82"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="136"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="82"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="30"/>
@@ -5964,62 +6025,62 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="143" t="s">
+      <c r="A7" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143" t="s">
+      <c r="B7" s="149"/>
+      <c r="C7" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143" t="s">
+      <c r="D7" s="149"/>
+      <c r="E7" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="143"/>
+      <c r="F7" s="149"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="142"/>
-      <c r="C8" s="142" t="s">
+      <c r="B8" s="148"/>
+      <c r="C8" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142" t="s">
+      <c r="D8" s="148"/>
+      <c r="E8" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="142"/>
+      <c r="F8" s="148"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="142"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
+      <c r="A9" s="148"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -6050,33 +6111,33 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150" t="s">
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
@@ -6155,12 +6216,12 @@
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="140" t="s">
+      <c r="D19" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="40"/>
@@ -6435,6 +6496,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
@@ -6444,26 +6525,6 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/プロジェクト型演習_成果物(削除画面).xlsx
+++ b/プロジェクト型演習_成果物(削除画面).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B35DFFA-1D83-4077-8662-F2DD38097B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B64B94-CC65-4FE1-AC43-192A3769CBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -517,43 +517,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスク削除画面を表示し、削除ボタンを押下すると削除を行い一覧ボタンを押下すると一覧に戻る</t>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン者が、ログイン一覧画面にて自分の担当タスクの横にあるボタンを押し、タスク詳細画面へと遷移する
 タスク削除ボタンが押されたらタスク削除画面へと遷移する
 タスク削除画面にて削除ボタンが押下されたら削除成功画面へと遷移する</t>
@@ -619,31 +582,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスク削除成功画面へと遷移し、DBから情報の削除を行う</t>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -665,43 +603,121 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインが済んでいる事　ログイン者がタスク詳細画面からタスク削除画面へ遷移する際に担当者と同一であること</t>
-    <rPh sb="5" eb="6">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ドウイツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>坂上</t>
     <rPh sb="0" eb="2">
       <t>サカガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク削除画面を表示し、削除ボタンを押下すると削除を行う
+一覧ボタンを押下すると一覧に戻る</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインが済んでいる事　
+ログイン者がタスク詳細画面からタスク削除画面へ遷移する際に担当者と同一であること
+担当者でない場合は、タスク変更画面への遷移を制限する</t>
+    <rPh sb="5" eb="6">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ドウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク削除成功画面へと遷移し、DBから情報の削除を行う
+タスク成功画面からは、ボタンを押下することでメニュー画面へと遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>セイコウガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1966,6 +1982,54 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2029,27 +2093,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2074,183 +2120,159 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2269,13 +2291,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4586,8 +4602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75DC96A-91C0-4F6F-8BFA-3E23AD0F882F}">
   <dimension ref="C1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4595,7 +4611,7 @@
     <row r="1" spans="3:16" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:16" ht="33" thickTop="1">
       <c r="C2" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
@@ -4693,7 +4709,7 @@
     </row>
     <row r="8" spans="3:16" ht="24">
       <c r="E8" s="46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
@@ -4718,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4538CB-88B1-4F00-BE8F-59AF7E88C672}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4730,19 +4746,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4754,204 +4770,193 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="55" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="61">
+      <c r="E2" s="72"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="77">
         <v>45632</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="81"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="82"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="83"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+    </row>
+    <row r="6" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A6" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="65"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="67"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="90"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="72" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="59"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="59"/>
+    </row>
+    <row r="8" spans="1:10" ht="65.25" customHeight="1">
+      <c r="A8" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="59"/>
+    </row>
+    <row r="9" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A9" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="91"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="91"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="91"/>
-    </row>
-    <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="74"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
     </row>
     <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="87"/>
-      <c r="B10" s="68" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="72" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="74"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
     </row>
     <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="68" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="92" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="70" t="s">
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
+    </row>
+    <row r="12" spans="1:10" ht="62.25" customHeight="1">
+      <c r="A12" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="74"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D1:E1"/>
@@ -4968,6 +4973,17 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4988,7 +5004,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="93"/>
@@ -5004,331 +5020,331 @@
       <c r="E2" s="93"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136" t="s">
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136" t="s">
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136" t="s">
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="139" t="s">
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="131"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="136" t="s">
+      <c r="J6" s="97"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="136"/>
-      <c r="Q6" s="136"/>
-      <c r="R6" s="136"/>
-      <c r="S6" s="136"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="137"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="99"/>
       <c r="J7" s="93"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="130" t="s">
+      <c r="K7" s="100"/>
+      <c r="L7" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="132"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="98"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="99"/>
       <c r="J8" s="93"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="137"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="99"/>
       <c r="M8" s="93"/>
       <c r="N8" s="93"/>
       <c r="O8" s="93"/>
       <c r="P8" s="93"/>
       <c r="Q8" s="93"/>
       <c r="R8" s="93"/>
-      <c r="S8" s="138"/>
+      <c r="S8" s="100"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="137"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="99"/>
       <c r="J9" s="93"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="137"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="99"/>
       <c r="M9" s="93"/>
       <c r="N9" s="93"/>
       <c r="O9" s="93"/>
       <c r="P9" s="93"/>
       <c r="Q9" s="93"/>
       <c r="R9" s="93"/>
-      <c r="S9" s="138"/>
+      <c r="S9" s="100"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="137"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="99"/>
       <c r="J10" s="93"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="137"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="99"/>
       <c r="M10" s="93"/>
       <c r="N10" s="93"/>
       <c r="O10" s="93"/>
       <c r="P10" s="93"/>
       <c r="Q10" s="93"/>
       <c r="R10" s="93"/>
-      <c r="S10" s="138"/>
+      <c r="S10" s="100"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="137"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="99"/>
       <c r="J11" s="93"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="137"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="99"/>
       <c r="M11" s="93"/>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="93"/>
       <c r="R11" s="93"/>
-      <c r="S11" s="138"/>
+      <c r="S11" s="100"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="135"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="103"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="136"/>
-      <c r="R13" s="136"/>
-      <c r="S13" s="136"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="136"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136" t="s">
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136" t="s">
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136" t="s">
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="136"/>
-      <c r="S15" s="136"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136" t="s">
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="136"/>
-      <c r="Q16" s="136"/>
-      <c r="R16" s="136"/>
-      <c r="S16" s="136"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="139" t="s">
+      <c r="C17" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="139" t="s">
+      <c r="D17" s="97"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="131"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="139" t="s">
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="131"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="130" t="s">
+      <c r="J17" s="97"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="132"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="98"/>
     </row>
     <row r="18" spans="3:24">
-      <c r="C18" s="137"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="93"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="134"/>
-      <c r="Q18" s="134"/>
-      <c r="R18" s="134"/>
-      <c r="S18" s="135"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="103"/>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="133"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="136" t="s">
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136" t="s">
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="136"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="136" t="s">
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="136"/>
-      <c r="Q19" s="136"/>
-      <c r="R19" s="136"/>
-      <c r="S19" s="136"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
     </row>
     <row r="20" spans="3:24">
       <c r="I20" s="93"/>
@@ -5341,19 +5357,19 @@
       <c r="K21" s="93"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="107" t="s">
+      <c r="C22" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="111" t="s">
+      <c r="D22" s="134"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="112"/>
-      <c r="H22" s="111" t="s">
+      <c r="G22" s="138"/>
+      <c r="H22" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="112"/>
+      <c r="I22" s="138"/>
       <c r="J22" s="21" t="s">
         <v>18</v>
       </c>
@@ -5365,126 +5381,126 @@
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="110"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="55" t="s">
+      <c r="C23" s="136"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="55" t="s">
+      <c r="G23" s="72"/>
+      <c r="H23" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="61">
+      <c r="I23" s="72"/>
+      <c r="J23" s="77">
         <v>45632</v>
       </c>
-      <c r="K23" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" s="105"/>
+      <c r="K23" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23" s="131"/>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="110"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="106"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="132"/>
     </row>
     <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="110"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="106"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="132"/>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="119" t="s">
+      <c r="C26" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="115" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="116"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="120"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="113" t="s">
+      <c r="C27" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="117"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="111"/>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="96"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="98"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="124"/>
     </row>
     <row r="29" spans="3:24">
-      <c r="C29" s="99"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="101"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="127"/>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="99"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="101"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="127"/>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="99"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="101"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="127"/>
       <c r="N31" s="93"/>
       <c r="O31" s="93"/>
       <c r="P31" s="93"/>
@@ -5497,16 +5513,16 @@
       <c r="X31" s="93"/>
     </row>
     <row r="32" spans="3:24">
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="101"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="127"/>
       <c r="N32" s="93"/>
       <c r="O32" s="93"/>
       <c r="P32" s="93"/>
@@ -5514,33 +5530,33 @@
       <c r="R32" s="93"/>
     </row>
     <row r="33" spans="3:24">
-      <c r="C33" s="99"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="101"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="127"/>
       <c r="N33" s="93"/>
       <c r="O33" s="93"/>
-      <c r="P33" s="95"/>
+      <c r="P33" s="139"/>
       <c r="Q33" s="93"/>
       <c r="R33" s="93"/>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="99"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="101"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="127"/>
       <c r="N34" s="93"/>
       <c r="O34" s="93"/>
       <c r="P34" s="93"/>
@@ -5548,16 +5564,16 @@
       <c r="R34" s="93"/>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="99"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="101"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="127"/>
       <c r="N35" s="93"/>
       <c r="O35" s="93"/>
       <c r="P35" s="93"/>
@@ -5570,151 +5586,151 @@
       <c r="X35" s="93"/>
     </row>
     <row r="36" spans="3:24">
-      <c r="C36" s="99"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="101"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="127"/>
       <c r="N36" s="93"/>
       <c r="O36" s="93"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="94"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
     </row>
     <row r="37" spans="3:24">
-      <c r="C37" s="99"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="101"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="127"/>
       <c r="N37" s="93"/>
       <c r="O37" s="93"/>
-      <c r="P37" s="94"/>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="94"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
     </row>
     <row r="38" spans="3:24">
-      <c r="C38" s="99"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="101"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="126"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="126"/>
+      <c r="K38" s="126"/>
+      <c r="L38" s="127"/>
     </row>
     <row r="39" spans="3:24">
-      <c r="C39" s="99"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="101"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="126"/>
+      <c r="K39" s="126"/>
+      <c r="L39" s="127"/>
     </row>
     <row r="40" spans="3:24">
-      <c r="C40" s="99"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="101"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="126"/>
+      <c r="K40" s="126"/>
+      <c r="L40" s="127"/>
     </row>
     <row r="41" spans="3:24">
-      <c r="C41" s="99"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="101"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="126"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="127"/>
     </row>
     <row r="42" spans="3:24">
-      <c r="C42" s="99"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="101"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="127"/>
     </row>
     <row r="43" spans="3:24">
-      <c r="C43" s="102"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="104"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="130"/>
     </row>
     <row r="44" spans="3:24">
-      <c r="C44" s="113" t="s">
+      <c r="C44" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="117"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="111"/>
     </row>
     <row r="45" spans="3:24">
-      <c r="C45" s="113" t="s">
+      <c r="C45" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="84"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="85"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="49"/>
       <c r="K45" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="3:24">
-      <c r="C46" s="113" t="s">
+      <c r="C46" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="84"/>
-      <c r="E46" s="85"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="4" t="s">
         <v>27</v>
       </c>
@@ -5727,18 +5743,18 @@
       <c r="I46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="118" t="s">
+      <c r="J46" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="K46" s="84"/>
-      <c r="L46" s="117"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="111"/>
     </row>
     <row r="47" spans="3:24">
-      <c r="C47" s="114" t="s">
+      <c r="C47" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="84"/>
-      <c r="E47" s="85"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
         <v>59</v>
@@ -5749,14 +5765,14 @@
       <c r="I47" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J47" s="72"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="117"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="111"/>
     </row>
     <row r="48" spans="3:24">
-      <c r="C48" s="114"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="85"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="49"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
@@ -5766,18 +5782,18 @@
       <c r="L48" s="24"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="113" t="s">
+      <c r="C49" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="84"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="72" t="s">
+      <c r="D49" s="48"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="85"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="49"/>
       <c r="K49" s="4" t="s">
         <v>25</v>
       </c>
@@ -5786,11 +5802,11 @@
       </c>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="113" t="s">
+      <c r="C50" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="84"/>
-      <c r="E50" s="85"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
       <c r="F50" s="4" t="s">
         <v>27</v>
       </c>
@@ -5803,18 +5819,18 @@
       <c r="I50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J50" s="118" t="s">
+      <c r="J50" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="K50" s="84"/>
-      <c r="L50" s="117"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="111"/>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="126" t="s">
+      <c r="C51" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="127"/>
-      <c r="E51" s="56"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="72"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
         <v>59</v>
@@ -5830,21 +5846,21 @@
       <c r="L51" s="26"/>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="128"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="129"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="107"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
-      <c r="J52" s="123"/>
-      <c r="K52" s="124"/>
-      <c r="L52" s="125"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="112"/>
     </row>
     <row r="53" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C53" s="120"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="122"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="110"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
@@ -5855,54 +5871,15 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="C6:E14"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="F6:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P36:R37"/>
+    <mergeCell ref="N36:O37"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
     <mergeCell ref="F23:G25"/>
     <mergeCell ref="H23:I25"/>
     <mergeCell ref="C28:L43"/>
@@ -5917,15 +5894,54 @@
     <mergeCell ref="C22:E25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="C15:E16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5947,19 +5963,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="146" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5971,46 +5987,46 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="110"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="147" t="s">
+      <c r="A2" s="136"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="61">
+      <c r="E2" s="72"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="77">
         <v>45632</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="65"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="110"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="66"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="66"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="82"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="30"/>
@@ -6025,62 +6041,62 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149" t="s">
+      <c r="B7" s="143"/>
+      <c r="C7" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149" t="s">
+      <c r="D7" s="143"/>
+      <c r="E7" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="149"/>
+      <c r="F7" s="143"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148" t="s">
+      <c r="B8" s="142"/>
+      <c r="C8" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="148"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="142"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="148"/>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -6111,33 +6127,33 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="142" t="s">
+      <c r="A12" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140" t="s">
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
@@ -6216,12 +6232,12 @@
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="150" t="s">
+      <c r="D19" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="40"/>
@@ -6496,26 +6512,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
@@ -6525,6 +6521,26 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/プロジェクト型演習_成果物(削除画面).xlsx
+++ b/プロジェクト型演習_成果物(削除画面).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B64B94-CC65-4FE1-AC43-192A3769CBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2961C5-E101-40ED-AB48-EB061A452A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>プロジェクト演習
 タスク編集機能</t>
@@ -718,6 +718,28 @@
     </rPh>
     <rPh sb="58" eb="60">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すでに削除済みのデータを削除しようとした場合:　一覧表示に戻る</t>
+    <rPh sb="3" eb="6">
+      <t>サクジョズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1982,9 +2004,117 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2000,298 +2130,190 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4734,8 +4756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4538CB-88B1-4F00-BE8F-59AF7E88C672}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:J10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4746,19 +4768,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="69" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="69" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="70"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4770,193 +4792,204 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="77">
+      <c r="E2" s="56"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="61">
         <v>45632</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="82"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="83"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="55" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="90"/>
     </row>
     <row r="6" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="60" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="59"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="58" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="59"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="91"/>
     </row>
     <row r="8" spans="1:10" ht="65.25" customHeight="1">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="60" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="59"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="91"/>
     </row>
     <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="60" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="74"/>
     </row>
     <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="58" t="s">
+      <c r="C10" s="69"/>
+      <c r="D10" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="74"/>
     </row>
     <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:10" ht="62.25" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="60" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D1:E1"/>
@@ -4973,17 +5006,6 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4994,7 +5016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE3C090-186F-4CA2-AD66-6967D9C59DC5}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
@@ -5004,7 +5026,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="93"/>
@@ -5020,331 +5042,331 @@
       <c r="E2" s="93"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94" t="s">
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94" t="s">
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94" t="s">
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94" t="s">
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="96" t="s">
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="97"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="94" t="s">
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="136"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="99"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="137"/>
       <c r="J7" s="93"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="104" t="s">
+      <c r="K7" s="138"/>
+      <c r="L7" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="98"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="132"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="99"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
       <c r="J8" s="93"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="99"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="137"/>
       <c r="M8" s="93"/>
       <c r="N8" s="93"/>
       <c r="O8" s="93"/>
       <c r="P8" s="93"/>
       <c r="Q8" s="93"/>
       <c r="R8" s="93"/>
-      <c r="S8" s="100"/>
+      <c r="S8" s="138"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="99"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="137"/>
       <c r="J9" s="93"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="99"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="137"/>
       <c r="M9" s="93"/>
       <c r="N9" s="93"/>
       <c r="O9" s="93"/>
       <c r="P9" s="93"/>
       <c r="Q9" s="93"/>
       <c r="R9" s="93"/>
-      <c r="S9" s="100"/>
+      <c r="S9" s="138"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="99"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="137"/>
       <c r="J10" s="93"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="99"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="137"/>
       <c r="M10" s="93"/>
       <c r="N10" s="93"/>
       <c r="O10" s="93"/>
       <c r="P10" s="93"/>
       <c r="Q10" s="93"/>
       <c r="R10" s="93"/>
-      <c r="S10" s="100"/>
+      <c r="S10" s="138"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="99"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="137"/>
       <c r="J11" s="93"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="99"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="137"/>
       <c r="M11" s="93"/>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="93"/>
       <c r="R11" s="93"/>
-      <c r="S11" s="100"/>
+      <c r="S11" s="138"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="103"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="135"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="136"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="136"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94" t="s">
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94" t="s">
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94" t="s">
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
+      <c r="S15" s="136"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94" t="s">
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="136"/>
+      <c r="S16" s="136"/>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="96" t="s">
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="96" t="s">
+      <c r="G17" s="131"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="97"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="104" t="s">
+      <c r="J17" s="131"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="98"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="132"/>
     </row>
     <row r="18" spans="3:24">
-      <c r="C18" s="99"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="93"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="103"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="135"/>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="94" t="s">
+      <c r="C19" s="133"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94" t="s">
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94" t="s">
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="136"/>
+      <c r="Q19" s="136"/>
+      <c r="R19" s="136"/>
+      <c r="S19" s="136"/>
     </row>
     <row r="20" spans="3:24">
       <c r="I20" s="93"/>
@@ -5357,19 +5379,19 @@
       <c r="K21" s="93"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="137" t="s">
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="138"/>
-      <c r="H22" s="137" t="s">
+      <c r="G22" s="112"/>
+      <c r="H22" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="138"/>
+      <c r="I22" s="112"/>
       <c r="J22" s="21" t="s">
         <v>18</v>
       </c>
@@ -5381,126 +5403,126 @@
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="136"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="71" t="s">
+      <c r="C23" s="110"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="72"/>
-      <c r="H23" s="71" t="s">
+      <c r="G23" s="56"/>
+      <c r="H23" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="72"/>
-      <c r="J23" s="77">
+      <c r="I23" s="56"/>
+      <c r="J23" s="61">
         <v>45632</v>
       </c>
-      <c r="K23" s="80" t="s">
+      <c r="K23" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="L23" s="131"/>
+      <c r="L23" s="105"/>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="136"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="132"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="106"/>
     </row>
     <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="136"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="132"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="106"/>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="121" t="s">
+      <c r="C26" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="119" t="s">
+      <c r="D26" s="83"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="120"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="116"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="114" t="s">
+      <c r="C27" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="111"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="117"/>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="122"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="124"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="98"/>
     </row>
     <row r="29" spans="3:24">
-      <c r="C29" s="125"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="127"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="101"/>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="125"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="127"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="101"/>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="127"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="101"/>
       <c r="N31" s="93"/>
       <c r="O31" s="93"/>
       <c r="P31" s="93"/>
@@ -5513,16 +5535,16 @@
       <c r="X31" s="93"/>
     </row>
     <row r="32" spans="3:24">
-      <c r="C32" s="125"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="127"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="101"/>
       <c r="N32" s="93"/>
       <c r="O32" s="93"/>
       <c r="P32" s="93"/>
@@ -5530,33 +5552,33 @@
       <c r="R32" s="93"/>
     </row>
     <row r="33" spans="3:24">
-      <c r="C33" s="125"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="127"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="101"/>
       <c r="N33" s="93"/>
       <c r="O33" s="93"/>
-      <c r="P33" s="139"/>
+      <c r="P33" s="95"/>
       <c r="Q33" s="93"/>
       <c r="R33" s="93"/>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="125"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="126"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="127"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="101"/>
       <c r="N34" s="93"/>
       <c r="O34" s="93"/>
       <c r="P34" s="93"/>
@@ -5564,16 +5586,16 @@
       <c r="R34" s="93"/>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="125"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="127"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="101"/>
       <c r="N35" s="93"/>
       <c r="O35" s="93"/>
       <c r="P35" s="93"/>
@@ -5586,138 +5608,138 @@
       <c r="X35" s="93"/>
     </row>
     <row r="36" spans="3:24">
-      <c r="C36" s="125"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="127"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="101"/>
       <c r="N36" s="93"/>
       <c r="O36" s="93"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
     </row>
     <row r="37" spans="3:24">
-      <c r="C37" s="125"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="127"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="101"/>
       <c r="N37" s="93"/>
       <c r="O37" s="93"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
     </row>
     <row r="38" spans="3:24">
-      <c r="C38" s="125"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="126"/>
-      <c r="K38" s="126"/>
-      <c r="L38" s="127"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="101"/>
     </row>
     <row r="39" spans="3:24">
-      <c r="C39" s="125"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="126"/>
-      <c r="K39" s="126"/>
-      <c r="L39" s="127"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="101"/>
     </row>
     <row r="40" spans="3:24">
-      <c r="C40" s="125"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="126"/>
-      <c r="K40" s="126"/>
-      <c r="L40" s="127"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="101"/>
     </row>
     <row r="41" spans="3:24">
-      <c r="C41" s="125"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="127"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="101"/>
     </row>
     <row r="42" spans="3:24">
-      <c r="C42" s="125"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="127"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="101"/>
     </row>
     <row r="43" spans="3:24">
-      <c r="C43" s="128"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="130"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="104"/>
     </row>
     <row r="44" spans="3:24">
-      <c r="C44" s="114" t="s">
+      <c r="C44" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="111"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="117"/>
     </row>
     <row r="45" spans="3:24">
-      <c r="C45" s="114" t="s">
+      <c r="C45" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="58" t="s">
+      <c r="D45" s="84"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="49"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="85"/>
       <c r="K45" s="4" t="s">
         <v>25</v>
       </c>
@@ -5726,11 +5748,11 @@
       </c>
     </row>
     <row r="46" spans="3:24">
-      <c r="C46" s="114" t="s">
+      <c r="C46" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="49"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="85"/>
       <c r="F46" s="4" t="s">
         <v>27</v>
       </c>
@@ -5743,18 +5765,18 @@
       <c r="I46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="117" t="s">
+      <c r="J46" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="K46" s="48"/>
-      <c r="L46" s="111"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="117"/>
     </row>
     <row r="47" spans="3:24">
-      <c r="C47" s="113" t="s">
+      <c r="C47" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="85"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
         <v>59</v>
@@ -5765,14 +5787,14 @@
       <c r="I47" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J47" s="58"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="111"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="117"/>
     </row>
     <row r="48" spans="3:24">
-      <c r="C48" s="113"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="49"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="85"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
@@ -5782,18 +5804,18 @@
       <c r="L48" s="24"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="114" t="s">
+      <c r="C49" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="58" t="s">
+      <c r="D49" s="84"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="49"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="85"/>
       <c r="K49" s="4" t="s">
         <v>25</v>
       </c>
@@ -5802,11 +5824,11 @@
       </c>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="114" t="s">
+      <c r="C50" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="49"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="85"/>
       <c r="F50" s="4" t="s">
         <v>27</v>
       </c>
@@ -5819,18 +5841,18 @@
       <c r="I50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J50" s="117" t="s">
+      <c r="J50" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="K50" s="48"/>
-      <c r="L50" s="111"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="117"/>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="115" t="s">
+      <c r="C51" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="116"/>
-      <c r="E51" s="72"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="56"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
         <v>59</v>
@@ -5846,21 +5868,21 @@
       <c r="L51" s="26"/>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="118"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="107"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="129"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
-      <c r="J52" s="105"/>
-      <c r="K52" s="106"/>
-      <c r="L52" s="112"/>
+      <c r="J52" s="123"/>
+      <c r="K52" s="124"/>
+      <c r="L52" s="125"/>
     </row>
     <row r="53" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C53" s="108"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="110"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="122"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
@@ -5871,15 +5893,54 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="F23:G25"/>
     <mergeCell ref="H23:I25"/>
     <mergeCell ref="C28:L43"/>
@@ -5894,54 +5955,15 @@
     <mergeCell ref="C22:E25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="F6:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="C6:E14"/>
-    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P36:R37"/>
+    <mergeCell ref="N36:O37"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5963,19 +5985,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="148" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="69" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="70"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5987,46 +6009,46 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="136"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="149" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="77">
+      <c r="E2" s="56"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="61">
         <v>45632</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="136"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="82"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="136"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="82"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="30"/>
@@ -6041,62 +6063,62 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="143" t="s">
+      <c r="A7" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143" t="s">
+      <c r="B7" s="149"/>
+      <c r="C7" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143" t="s">
+      <c r="D7" s="149"/>
+      <c r="E7" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="143"/>
+      <c r="F7" s="149"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="142"/>
-      <c r="C8" s="142" t="s">
+      <c r="B8" s="148"/>
+      <c r="C8" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142" t="s">
+      <c r="D8" s="148"/>
+      <c r="E8" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="142"/>
+      <c r="F8" s="148"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="142"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
+      <c r="A9" s="148"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -6127,33 +6149,33 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150" t="s">
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
@@ -6232,12 +6254,12 @@
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="140" t="s">
+      <c r="D19" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="40"/>
@@ -6512,6 +6534,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
@@ -6521,26 +6563,6 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
